--- a/Datasets/Fantasy Football 2014.xlsx
+++ b/Datasets/Fantasy Football 2014.xlsx
@@ -2670,8 +2670,8 @@
   </sheetPr>
   <dimension ref="A1:AD186"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="A35" sqref="A35"/>
+    <sheetView tabSelected="1" topLeftCell="A142" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="A142" sqref="A142"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.08984375" defaultRowHeight="13" x14ac:dyDescent="0.3"/>
